--- a/Doc/1.SA/業務フロー/現行/現行業務フロー（随時）.xlsx
+++ b/Doc/1.SA/業務フロー/現行/現行業務フロー（随時）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaimuVB\Desktop\Work\1.SA\業務フロー\現行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\業務フロー\現行\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="11085" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="11085" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="受注" sheetId="2" r:id="rId1"/>
@@ -6683,7 +6683,7 @@
       <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="10"/>
       <c r="G4" s="16"/>
     </row>
@@ -6707,7 +6707,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="10"/>
       <c r="G5" s="16"/>
     </row>
@@ -6715,7 +6715,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="10"/>
       <c r="G6" s="16"/>
     </row>
@@ -6723,7 +6723,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="10"/>
       <c r="G7" s="16"/>
     </row>
@@ -6731,7 +6731,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="10"/>
       <c r="G8" s="16"/>
     </row>
@@ -6739,7 +6739,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="10"/>
       <c r="G9" s="16"/>
     </row>
@@ -6747,7 +6747,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="10"/>
       <c r="G10" s="16"/>
     </row>
@@ -6755,7 +6755,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="10"/>
       <c r="G11" s="16"/>
     </row>
@@ -6763,7 +6763,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="10"/>
       <c r="G12" s="16"/>
     </row>
@@ -6771,7 +6771,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="10"/>
       <c r="G13" s="16"/>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="10"/>
       <c r="G14" s="16"/>
     </row>
@@ -6787,7 +6787,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="10"/>
       <c r="G15" s="16"/>
     </row>
@@ -6795,7 +6795,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="10"/>
       <c r="G16" s="16"/>
     </row>
@@ -6803,7 +6803,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="10"/>
       <c r="G17" s="16"/>
     </row>
@@ -6811,7 +6811,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="16"/>
     </row>
@@ -6819,7 +6819,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="16"/>
     </row>
@@ -6827,7 +6827,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="16"/>
     </row>
@@ -6835,7 +6835,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="10"/>
       <c r="G21" s="16"/>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="9"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="11"/>
       <c r="G22" s="17"/>
     </row>
